--- a/data/profiles/xlsx/bluff/profile 35-9 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 35-9 graph.xlsx
@@ -16762,11 +16762,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54237302"/>
-        <c:axId val="13365332"/>
+        <c:axId val="52891541"/>
+        <c:axId val="25763622"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54237302"/>
+        <c:axId val="52891541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16801,12 +16801,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13365332"/>
+        <c:crossAx val="25763622"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13365332"/>
+        <c:axId val="25763622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16850,7 +16850,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54237302"/>
+        <c:crossAx val="52891541"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
